--- a/excel/excel-training/Level 2/VLOOKUP Examples.xlsx
+++ b/excel/excel-training/Level 2/VLOOKUP Examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonac\Dropbox\Excel Campus\Courses\Elevate\Course Files\Published\Stage 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66460A23-8363-4FBD-BC60-95142D1254B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3267EAC-97B8-3E42-BEE3-9814D73E780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2475" windowWidth="19170" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="How VLOOKUP Works" sheetId="16" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="89">
   <si>
     <t>CLASSIC FAVORITES</t>
   </si>
@@ -291,6 +291,30 @@
   </si>
   <si>
     <t>VLOOKUP - Copying Formulas &amp; Absolute References</t>
+  </si>
+  <si>
+    <t>The 5 Essentials of VLOOKUP</t>
+  </si>
+  <si>
+    <t>1. How VLOOKUP works</t>
+  </si>
+  <si>
+    <t>2. What are the 4 arguments</t>
+  </si>
+  <si>
+    <t>3. Common myth about sorting</t>
+  </si>
+  <si>
+    <t>4. Anchor your table array</t>
+  </si>
+  <si>
+    <t>5. Column index is relative</t>
+  </si>
+  <si>
+    <t>Search Column (1)</t>
+  </si>
+  <si>
+    <t>Keeping the lookup range sorted is important when last argument is set to TRUE</t>
   </si>
 </sst>
 </file>
@@ -304,7 +328,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -435,8 +459,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +755,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,6 +858,19 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -931,7 +983,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>356151</xdr:colOff>
+      <xdr:colOff>491067</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>57978</xdr:rowOff>
     </xdr:to>
@@ -948,8 +1000,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="157370" y="2136912"/>
-          <a:ext cx="1681368" cy="331305"/>
+          <a:off x="157370" y="2267777"/>
+          <a:ext cx="1747630" cy="355601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2439,8 +2491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="238125" y="590550"/>
-          <a:ext cx="1830599" cy="1085850"/>
+          <a:off x="238125" y="594783"/>
+          <a:ext cx="1830599" cy="1111250"/>
           <a:chOff x="133350" y="247650"/>
           <a:chExt cx="1830599" cy="1085850"/>
         </a:xfrm>
@@ -2752,10 +2804,23 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C3B699F-7FE0-F243-8437-CD947B5A7639}" name="TblMenu" displayName="TblMenu" ref="C3:F12" totalsRowShown="0">
+  <autoFilter ref="C3:F12" xr:uid="{7C3B699F-7FE0-F243-8437-CD947B5A7639}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E8D48528-20C0-CA4C-8D15-4A8C5A3B0B70}" name="CLASSIC FAVORITES"/>
+    <tableColumn id="2" xr3:uid="{2E7AD1AC-37EE-4A47-901A-A4A77758AF91}" name="TALL"/>
+    <tableColumn id="3" xr3:uid="{B3E97452-DB33-0743-8E6C-08B535EDF6A3}" name="GRANDE"/>
+    <tableColumn id="4" xr3:uid="{F1BC9163-239D-1448-BFDC-12DFB8E82113}" name="VENTI"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2793,9 +2858,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2828,26 +2893,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2880,26 +2928,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3076,23 +3107,51 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="12" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="64" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="64" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="63"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
+      <c r="K3" s="68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="68" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
@@ -3100,22 +3159,22 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3135,20 +3194,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="173" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
         <v>57</v>
       </c>
@@ -3156,13 +3217,13 @@
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>10005</v>
       </c>
@@ -3182,57 +3243,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="33.19921875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.19921875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="50"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="31">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="31">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="31">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="31">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
         <v>66</v>
       </c>
@@ -3243,7 +3307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="48" t="s">
         <v>63</v>
       </c>
@@ -3255,19 +3319,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="52">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="31">
         <f>VLOOKUP(B14,$B$4:$B$8,1,TRUE)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>61</v>
       </c>
@@ -3279,7 +3343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>60</v>
       </c>
@@ -3301,32 +3365,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A21" zoomScale="187" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="4.796875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="60" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="60"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="54" t="s">
         <v>70</v>
       </c>
@@ -3337,7 +3401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="56" t="s">
         <v>73</v>
       </c>
@@ -3348,7 +3412,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="str">
         <f>TEXT(C6,"$#,###")&amp;"-"&amp;TEXT(C7-1,"$#,###")</f>
         <v>$50,001-$100,000</v>
@@ -3360,7 +3424,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="56" t="str">
         <f>TEXT(C7,"$#,###")&amp;"-"&amp;TEXT(C8-1,"$#,###")</f>
         <v>$100,001-$150,000</v>
@@ -3372,7 +3436,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="56" t="str">
         <f>TEXT(C8,"$#,###")&amp;"+"</f>
         <v>$150,001+</v>
@@ -3384,7 +3448,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="49" t="s">
         <v>74</v>
       </c>
@@ -3392,7 +3456,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>75</v>
       </c>
@@ -3405,14 +3469,14 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="60" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="54" t="s">
         <v>70</v>
       </c>
@@ -3423,7 +3487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="56" t="s">
         <v>73</v>
       </c>
@@ -3434,7 +3498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="56" t="str">
         <f>TEXT(C27,"$#,###")&amp;"-"&amp;TEXT(C28-1,"$#,###")</f>
         <v>$50,001-$100,000</v>
@@ -3446,7 +3510,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="56" t="str">
         <f>TEXT(C28,"$#,###")&amp;"-"&amp;TEXT(C29-1,"$#,###")</f>
         <v>$100,001-$150,000</v>
@@ -3458,7 +3522,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="56" t="str">
         <f>TEXT(C29,"$#,###")&amp;"+"</f>
         <v>$150,001+</v>
@@ -3470,7 +3534,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" s="49" t="s">
         <v>74</v>
       </c>
@@ -3478,16 +3542,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="59" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="61">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="D33" s="62">
         <f>VLOOKUP(C33,$C$26:$D$29,2,TRUE)</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -3501,27 +3565,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="4.796875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="60" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
         <v>70</v>
       </c>
@@ -3532,7 +3596,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="56" t="s">
         <v>73</v>
       </c>
@@ -3543,7 +3607,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="56" t="str">
         <f>TEXT(C5,"$#,###")&amp;"-"&amp;TEXT(C6-1,"$#,###")</f>
         <v>$50,001-$100,000</v>
@@ -3555,7 +3619,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="str">
         <f>TEXT(C6,"$#,###")&amp;"-"&amp;TEXT(C7-1,"$#,###")</f>
         <v>$100,001-$150,000</v>
@@ -3567,7 +3631,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="56" t="str">
         <f>TEXT(C7,"$#,###")&amp;"+"</f>
         <v>$150,001+</v>
@@ -3579,7 +3643,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C15" s="49" t="s">
         <v>74</v>
       </c>
@@ -3587,16 +3651,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="59" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="57">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="D16" s="58">
         <f>VLOOKUP(C16,$C$4:$D$7,2,TRUE)</f>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E16" s="58"/>
     </row>
@@ -3615,25 +3679,25 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="2" customWidth="1"/>
-    <col min="7" max="12" width="9.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="24.19921875" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.796875" style="2" customWidth="1"/>
+    <col min="7" max="12" width="9.19921875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -3646,8 +3710,8 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" customFormat="1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <f>COLUMN()</f>
         <v>1</v>
@@ -3666,7 +3730,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
@@ -3689,7 +3753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3714,7 +3778,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3730,7 +3794,7 @@
       <c r="F8" s="7"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -3745,7 +3809,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3759,7 +3823,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3773,7 +3837,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -3787,7 +3851,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -3801,7 +3865,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -3815,7 +3879,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3829,7 +3893,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F9" xr:uid="{00000000-0002-0000-0C00-000000000000}">
@@ -3848,23 +3912,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.59765625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.19921875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -3878,7 +3942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3892,7 +3956,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3906,7 +3970,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3920,7 +3984,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3934,7 +3998,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -3948,7 +4012,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3962,7 +4026,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3976,7 +4040,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -3990,7 +4054,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -4004,8 +4068,21 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="70">
+        <v>2</v>
+      </c>
+      <c r="C13" s="70">
+        <v>3</v>
+      </c>
+      <c r="D13" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -4013,8 +4090,8 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="6" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -4041,13 +4118,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="12" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4061,22 +4138,22 @@
       </c>
     </row>
     <row r="26" spans="10:15" x14ac:dyDescent="0.2">
-      <c r="J26" s="68" t="s">
+      <c r="J26" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4096,25 +4173,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.59765625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.19921875" style="2" customWidth="1"/>
+    <col min="5" max="9" width="9.19921875" style="2"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -4128,7 +4205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4142,7 +4219,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4156,7 +4233,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -4170,7 +4247,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
         <v>7</v>
       </c>
@@ -4184,7 +4261,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -4198,7 +4275,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
         <v>7</v>
       </c>
@@ -4212,7 +4289,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -4226,7 +4303,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -4240,7 +4317,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -4254,8 +4331,8 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -4263,8 +4340,8 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="6" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -4288,19 +4365,19 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.59765625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.19921875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
@@ -4328,7 +4405,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>11</v>
       </c>
@@ -4342,7 +4419,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
@@ -4356,7 +4433,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>10</v>
       </c>
@@ -4370,7 +4447,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -4384,7 +4461,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
@@ -4398,7 +4475,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
@@ -4412,7 +4489,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
@@ -4426,7 +4503,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>9</v>
       </c>
@@ -4440,8 +4517,8 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -4449,8 +4526,8 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="6" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -4475,25 +4552,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="5" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -4507,7 +4584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4521,7 +4598,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4535,7 +4612,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -4549,7 +4626,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -4563,7 +4640,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4577,7 +4654,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -4591,7 +4668,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -4605,7 +4682,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -4619,7 +4696,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -4633,8 +4710,8 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -4642,13 +4719,13 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="6" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -4658,7 +4735,7 @@
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>10</v>
       </c>
@@ -4668,7 +4745,7 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>4</v>
       </c>
@@ -4678,7 +4755,7 @@
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -4688,7 +4765,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>27</v>
       </c>
@@ -4709,165 +4786,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A2" zoomScale="193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.19921875" style="2"/>
+    <col min="3" max="3" width="25.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="71" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="72">
         <v>2.95</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="72">
         <v>3.75</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="72">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="72">
         <v>2.95</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="72">
         <v>3.65</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="72">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="72">
         <v>3.75</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="72">
         <v>3.95</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="72">
         <v>4.25</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="72">
         <v>3.25</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="72">
         <v>3.95</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="72">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="72">
         <v>3.45</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="72">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="72">
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="72">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="72">
         <v>2.4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="72">
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="72">
         <v>3.95</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="72">
         <v>4.75</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="72">
         <v>5.15</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="72">
         <v>2.25</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="72">
         <v>2.5</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="72">
         <v>2.75</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="72">
         <v>1.75</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="72">
         <v>1.95</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="72">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
@@ -4875,13 +4954,13 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="3:6" s="6" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" s="6" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="8">
-        <f>VLOOKUP(C16,$C$4:$F$12,3,FALSE)</f>
+        <f>VLOOKUP(C16,TblMenu[],3,FALSE)</f>
         <v>3.95</v>
       </c>
     </row>
@@ -4889,6 +4968,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4897,22 +4979,22 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.59765625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.19921875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -4926,7 +5008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4940,7 +5022,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4954,7 +5036,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -4968,7 +5050,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -4982,7 +5064,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4996,7 +5078,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -5010,7 +5092,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -5024,7 +5106,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -5038,7 +5120,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -5052,8 +5134,8 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -5061,8 +5143,8 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="6" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -5082,28 +5164,28 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="31"/>
+    <col min="8" max="8" width="9.59765625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.19921875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>56</v>
       </c>
@@ -5129,7 +5211,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="44">
         <v>10001</v>
       </c>
@@ -5155,7 +5237,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="45">
         <v>10002</v>
       </c>
@@ -5181,7 +5263,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="46">
         <v>10003</v>
       </c>
@@ -5207,7 +5289,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="46">
         <v>10004</v>
       </c>
@@ -5233,7 +5315,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="46">
         <v>10005</v>
       </c>
@@ -5259,7 +5341,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="46">
         <v>10006</v>
       </c>
@@ -5285,7 +5367,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="46">
         <v>10007</v>
       </c>
@@ -5311,7 +5393,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="46">
         <v>10008</v>
       </c>
@@ -5337,7 +5419,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
         <v>57</v>
       </c>
@@ -5345,8 +5427,8 @@
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>10005</v>
       </c>
